--- a/06-03-2023/data/output/xlsx/Causality for Category/14.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/14.xlsx
@@ -49,39 +49,36 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__5</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__5</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
@@ -121,72 +118,72 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_decimals__12</t>
   </si>
   <si>
@@ -241,21 +238,21 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_decimals__30</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
@@ -289,7 +286,7 @@
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
+    <t>num_of_equals__14</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
@@ -331,18 +328,18 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
@@ -373,21 +370,21 @@
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__1</t>
+    <t>num_of_unknowns__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,pairs_of_parentheses__0</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
@@ -422,6 +419,9 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>

--- a/06-03-2023/data/output/xlsx/Causality for Category/14.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/14.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="149">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -52,33 +52,27 @@
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__4,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__12,num_of_mults_and_divs__10,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>n/a</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__12,num_of_mults_and_divs__10,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
@@ -103,15 +97,27 @@
     <t>num_of_adds_and_subs__13</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__12,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__14</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__12,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__15</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__12,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__12,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__17</t>
   </si>
   <si>
@@ -124,64 +130,64 @@
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__12,num_of_mults_and_divs__10,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__12,num_of_mults_and_divs__10,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__12,num_of_mults_and_divs__10,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__12,num_of_mults_and_divs__10,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__12,num_of_mults_and_divs__10,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__12,num_of_mults_and_divs__10,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__12,num_of_mults_and_divs__10,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__12,num_of_mults_and_divs__10,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__12,num_of_mults_and_divs__10,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_decimals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__1,num_of_equals__2,num_of_equals__12,num_of_mults_and_divs__10,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_decimals__12</t>
@@ -244,13 +250,13 @@
     <t>num_of_equals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__2,num_of_equals__12,num_of_mults_and_divs__10,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__12,num_of_mults_and_divs__10,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_equals__3</t>
@@ -283,6 +289,9 @@
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_equals__13</t>
   </si>
   <si>
@@ -319,6 +328,9 @@
     <t>num_of_mults_and_divs__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__11</t>
   </si>
   <si>
@@ -337,9 +349,6 @@
     <t>num_of_unknowns__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
@@ -376,13 +385,10 @@
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__12,num_of_mults_and_divs__10</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
@@ -577,10 +583,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$13</c:f>
+              <c:f>AddsSubs!$C$4:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -604,39 +610,87 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$13</c:f>
+              <c:f>AddsSubs!$D$4:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.05413687436159346</c:v>
+                  <c:v>0.1195097037793667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05932203389830509</c:v>
+                  <c:v>0.1186440677966102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06796116504854369</c:v>
+                  <c:v>0.116504854368932</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06060606060606061</c:v>
+                  <c:v>0.1212121212121212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0380952380952381</c:v>
+                  <c:v>0.09523809523809523</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02531645569620253</c:v>
+                  <c:v>0.06329113924050633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01923076923076923</c:v>
+                  <c:v>0.07692307692307693</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.025</c:v>
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05555555555555555</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -693,7 +747,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 14</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -757,10 +811,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$9</c:f>
+              <c:f>MultsDivs!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -772,27 +826,63 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$9</c:f>
+              <c:f>MultsDivs!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.0267379679144385</c:v>
+                  <c:v>0.08021390374331551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02112676056338028</c:v>
+                  <c:v>0.07746478873239436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02150537634408602</c:v>
+                  <c:v>0.06451612903225806</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0136986301369863</c:v>
+                  <c:v>0.0410958904109589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05555555555555555</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02702702702702703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04545454545454546</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09090909090909091</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,7 +939,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 14</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -913,10 +1003,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$14</c:f>
+              <c:f>Equations!$C$4:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -943,42 +1033,60 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$14</c:f>
+              <c:f>Equations!$D$4:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.05315947843530592</c:v>
+                  <c:v>0.119358074222668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05348133198789102</c:v>
+                  <c:v>0.1200807265388496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04823747680890538</c:v>
+                  <c:v>0.1187384044526902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05232558139534884</c:v>
+                  <c:v>0.1104651162790698</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04901960784313725</c:v>
+                  <c:v>0.08333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04411764705882353</c:v>
+                  <c:v>0.08088235294117647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.04347826086956522</c:v>
+                  <c:v>0.07608695652173914</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.03703703703703703</c:v>
+                  <c:v>0.07407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.02857142857142857</c:v>
+                  <c:v>0.1142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,7 +1143,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 14</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1146,37 +1254,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.05627009646302251</c:v>
+                  <c:v>0.1623794212218649</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05894308943089431</c:v>
+                  <c:v>0.1829268292682927</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06575342465753424</c:v>
+                  <c:v>0.1917808219178082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06719367588932806</c:v>
+                  <c:v>0.1857707509881423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0658682634730539</c:v>
+                  <c:v>0.1317365269461078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.07142857142857142</c:v>
+                  <c:v>0.126984126984127</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.08235294117647059</c:v>
+                  <c:v>0.1058823529411765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.09230769230769231</c:v>
+                  <c:v>0.1384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.04878048780487805</c:v>
+                  <c:v>0.1219512195121951</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.06451612903225806</c:v>
+                  <c:v>0.1290322580645161</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.08695652173913043</c:v>
+                  <c:v>0.1304347826086956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1233,7 +1341,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 14</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1297,10 +1405,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$10</c:f>
+              <c:f>Unknowns!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1312,33 +1420,27 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$10</c:f>
+              <c:f>Unknowns!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0531062124248497</c:v>
+                  <c:v>0.1192384769539078</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05417276720351391</c:v>
+                  <c:v>0.109809663250366</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05263157894736842</c:v>
+                  <c:v>0.03157894736842105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.03846153846153846</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04347826086956522</c:v>
+                  <c:v>0.01923076923076923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1395,7 +1497,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 14</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1485,16 +1587,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.06030150753768844</c:v>
+                  <c:v>0.1281407035175879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05732484076433121</c:v>
+                  <c:v>0.08917197452229299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02666666666666667</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02325581395348837</c:v>
+                  <c:v>0.09302325581395349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1551,7 +1653,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 14</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2117,16 +2219,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05413687436159346</v>
+        <v>0.1195097037793667</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>0.06621793589906583</v>
+        <v>0.1073987390691306</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2140,16 +2242,14 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05932203389830509</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0531062124248497</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.05175085757696687</v>
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2163,21 +2263,19 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.06796116504854369</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0531062124248497</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.03988343762516427</v>
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>198</v>
@@ -2186,21 +2284,21 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.06060606060606061</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1">
-        <v>0.03649489291959482</v>
+        <v>0.09303080486108115</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>105</v>
@@ -2209,19 +2307,19 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0380952380952381</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>79</v>
@@ -2230,19 +2328,19 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02531645569620253</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>52</v>
@@ -2251,19 +2349,19 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01923076923076923</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>40</v>
@@ -2272,19 +2370,19 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0.025</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>22</v>
@@ -2293,19 +2391,19 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>18</v>
@@ -2314,19 +2412,19 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <v>10</v>
@@ -2335,19 +2433,19 @@
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>9</v>
@@ -2356,19 +2454,19 @@
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1">
         <v>8</v>
@@ -2377,19 +2475,21 @@
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0531062124248497</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>18</v>
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.02113984907654623</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
@@ -2398,14 +2498,16 @@
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0531062124248497</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>18</v>
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.02982725867750686</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2419,19 +2521,21 @@
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0531062124248497</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>18</v>
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.07006786799310337</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -2440,19 +2544,21 @@
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0531062124248497</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>18</v>
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.1035523493587663</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2464,16 +2570,16 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2485,16 +2591,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2506,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1">
         <v>622</v>
@@ -2524,21 +2630,21 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.05627009646302251</v>
+        <v>0.1623794212218649</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G22" s="1">
-        <v>0.04585037896590791</v>
+        <v>0.1469816559559574</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1">
         <v>492</v>
@@ -2547,21 +2653,21 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.05894308943089431</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G23" s="1">
-        <v>0.0409003642234308</v>
+        <v>0.1655353139850295</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1">
         <v>365</v>
@@ -2570,21 +2676,21 @@
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.06575342465753424</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G24" s="1">
-        <v>0.04467134548147672</v>
+        <v>0.180966314082483</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>253</v>
@@ -2593,21 +2699,21 @@
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.06719367588932806</v>
+        <v>0.1857707509881423</v>
       </c>
       <c r="E25" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G25" s="1">
-        <v>0.03947508980046734</v>
+        <v>0.163487727386904</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1">
         <v>167</v>
@@ -2616,21 +2722,21 @@
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.0658682634730539</v>
+        <v>0.1317365269461078</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G26" s="1">
-        <v>0.0336893312870472</v>
+        <v>-0.04311525784070389</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1">
         <v>126</v>
@@ -2639,21 +2745,21 @@
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0.07142857142857142</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G27" s="1">
-        <v>0.03571394500003389</v>
+        <v>-0.04807091747281734</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1">
         <v>85</v>
@@ -2662,21 +2768,19 @@
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0.08235294117647059</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="E28" s="1">
-        <v>0.0531062124248497</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.03774472832613204</v>
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="1">
         <v>65</v>
@@ -2685,21 +2789,21 @@
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0.09230769230769231</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G29" s="1">
-        <v>0.04408461062589322</v>
+        <v>-0.02799395796645923</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1">
         <v>41</v>
@@ -2708,19 +2812,21 @@
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0.04878048780487805</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="E30" s="1">
-        <v>0.0531062124248497</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>18</v>
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-0.04819304999630641</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1">
         <v>31</v>
@@ -2729,21 +2835,21 @@
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0.06451612903225806</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="E31" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G31" s="1">
-        <v>-0.001319021311693633</v>
+        <v>-0.0684836732088554</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B32" s="1">
         <v>23</v>
@@ -2752,21 +2858,21 @@
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0.08695652173913043</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G32" s="1">
-        <v>0.02126506251561995</v>
+        <v>-0.07350939182750398</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B33" s="1">
         <v>15</v>
@@ -2778,16 +2884,16 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B34" s="1">
         <v>10</v>
@@ -2799,16 +2905,16 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B35" s="1">
         <v>7</v>
@@ -2820,16 +2926,16 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
@@ -2841,16 +2947,16 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B37" s="1">
         <v>6</v>
@@ -2862,16 +2968,16 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
@@ -2883,16 +2989,16 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -2904,16 +3010,16 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -2925,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -2946,16 +3052,16 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -2967,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -2988,16 +3094,16 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -3009,16 +3115,16 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -3030,16 +3136,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -3051,16 +3157,16 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -3072,16 +3178,16 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -3093,16 +3199,16 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -3114,16 +3220,16 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -3135,16 +3241,16 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -3156,16 +3262,16 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B52" s="1">
         <v>997</v>
@@ -3174,21 +3280,21 @@
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.05315947843530592</v>
+        <v>0.119358074222668</v>
       </c>
       <c r="E52" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G52" s="1">
-        <v>0.065538317546531</v>
+        <v>0.1500972817399521</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B53" s="1">
         <v>991</v>
@@ -3197,21 +3303,21 @@
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.05348133198789102</v>
+        <v>0.1200807265388496</v>
       </c>
       <c r="E53" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G53" s="1">
-        <v>0.06569285697855884</v>
+        <v>0.1503583387497996</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B54" s="1">
         <v>539</v>
@@ -3220,19 +3326,19 @@
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0.04823747680890538</v>
+        <v>0.1187384044526902</v>
       </c>
       <c r="E54" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B55" s="1">
         <v>344</v>
@@ -3241,19 +3347,19 @@
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0.05232558139534884</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="E55" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B56" s="1">
         <v>204</v>
@@ -3262,19 +3368,19 @@
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0.04901960784313725</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E56" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" s="1">
         <v>136</v>
@@ -3283,19 +3389,19 @@
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0.04411764705882353</v>
+        <v>0.08088235294117647</v>
       </c>
       <c r="E57" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58" s="1">
         <v>92</v>
@@ -3304,19 +3410,19 @@
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.04347826086956522</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="E58" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B59" s="1">
         <v>54</v>
@@ -3325,19 +3431,19 @@
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.03703703703703703</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="E59" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B60" s="1">
         <v>35</v>
@@ -3346,19 +3452,19 @@
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.02857142857142857</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="E60" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B61" s="1">
         <v>17</v>
@@ -3367,19 +3473,19 @@
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E61" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B62" s="1">
         <v>9</v>
@@ -3388,19 +3494,19 @@
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E62" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -3409,19 +3515,21 @@
         <v>61</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E63" s="1">
-        <v>0.0531062124248497</v>
-      </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1" t="s">
-        <v>18</v>
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.07769164508022336</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3433,16 +3541,16 @@
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -3454,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B66" s="1">
         <v>187</v>
@@ -3472,19 +3580,19 @@
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.0267379679144385</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="E66" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B67" s="1">
         <v>142</v>
@@ -3493,19 +3601,19 @@
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.02112676056338028</v>
+        <v>0.07746478873239436</v>
       </c>
       <c r="E67" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B68" s="1">
         <v>93</v>
@@ -3514,19 +3622,19 @@
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.02150537634408602</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="E68" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B69" s="1">
         <v>73</v>
@@ -3535,19 +3643,19 @@
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0.0136986301369863</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="E69" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B70" s="1">
         <v>54</v>
@@ -3556,19 +3664,19 @@
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E70" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B71" s="1">
         <v>37</v>
@@ -3577,19 +3685,19 @@
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E71" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B72" s="1">
         <v>22</v>
@@ -3598,19 +3706,19 @@
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E72" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B73" s="1">
         <v>17</v>
@@ -3619,19 +3727,19 @@
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E73" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B74" s="1">
         <v>11</v>
@@ -3640,19 +3748,19 @@
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E74" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B75" s="1">
         <v>8</v>
@@ -3661,19 +3769,21 @@
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E75" s="1">
-        <v>0.0531062124248497</v>
-      </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
-        <v>18</v>
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G75" s="1">
+        <v>-0.004599774876904271</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B76" s="1">
         <v>5</v>
@@ -3685,16 +3795,16 @@
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
@@ -3706,16 +3816,16 @@
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -3727,16 +3837,16 @@
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -3748,16 +3858,16 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B80" s="1">
         <v>998</v>
@@ -3766,19 +3876,19 @@
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="E80" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B81" s="1">
         <v>683</v>
@@ -3787,21 +3897,19 @@
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.05417276720351391</v>
+        <v>0.109809663250366</v>
       </c>
       <c r="E81" s="1">
-        <v>0.0531062124248497</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G81" s="1">
-        <v>-0.02936825566912952</v>
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B82" s="1">
         <v>95</v>
@@ -3810,19 +3918,19 @@
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0.05263157894736842</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="E82" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B83" s="1">
         <v>52</v>
@@ -3831,19 +3939,19 @@
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0.03846153846153846</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E83" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B84" s="1">
         <v>23</v>
@@ -3852,19 +3960,19 @@
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -3876,16 +3984,16 @@
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B86" s="1">
         <v>11</v>
@@ -3897,16 +4005,16 @@
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B87" s="1">
         <v>7</v>
@@ -3918,16 +4026,16 @@
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B88" s="1">
         <v>5</v>
@@ -3939,16 +4047,16 @@
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -3960,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
@@ -3981,16 +4089,16 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -4002,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -4023,16 +4131,16 @@
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B93" s="1">
         <v>398</v>
@@ -4041,21 +4149,21 @@
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.06030150753768844</v>
+        <v>0.1281407035175879</v>
       </c>
       <c r="E93" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G93" s="1">
-        <v>-0.05340218187148639</v>
+        <v>0.01569715408805308</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B94" s="1">
         <v>157</v>
@@ -4064,21 +4172,19 @@
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.05732484076433121</v>
+        <v>0.08917197452229299</v>
       </c>
       <c r="E94" s="1">
-        <v>0.0531062124248497</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G94" s="1">
-        <v>-0.02946960529687733</v>
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B95" s="1">
         <v>75</v>
@@ -4087,19 +4193,19 @@
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.02666666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="E95" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B96" s="1">
         <v>43</v>
@@ -4108,19 +4214,19 @@
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.02325581395348837</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="E96" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B97" s="1">
         <v>25</v>
@@ -4132,16 +4238,16 @@
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B98" s="1">
         <v>17</v>
@@ -4153,16 +4259,16 @@
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B99" s="1">
         <v>8</v>
@@ -4174,16 +4280,16 @@
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
@@ -4195,16 +4301,16 @@
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
@@ -4216,16 +4322,16 @@
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -4237,16 +4343,16 @@
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -4258,16 +4364,16 @@
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -4279,16 +4385,16 @@
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -4300,16 +4406,16 @@
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -4321,16 +4427,16 @@
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -4342,11 +4448,11 @@
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4356,7 +4462,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4367,7 +4473,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4390,25 +4496,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4422,13 +4528,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.05413687436159346</v>
+        <v>0.1195097037793667</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F4" s="1">
-        <v>0.001030661936743768</v>
+        <v>0.0002712268254588951</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4465,13 +4571,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.05932203389830509</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F5" s="1">
-        <v>0.006215821473455389</v>
+        <v>-0.0005944091572976373</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4508,13 +4614,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.06796116504854369</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F6" s="1">
-        <v>0.01485495262369399</v>
+        <v>-0.002733622584975767</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4542,7 +4648,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
         <v>198</v>
@@ -4551,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.06060606060606061</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F7" s="1">
-        <v>0.007499848181210911</v>
+        <v>0.001973644258213406</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4585,7 +4691,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3">
         <v>105</v>
@@ -4594,13 +4700,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.0380952380952381</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="E8" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.0150109743296116</v>
+        <v>-0.02400038171581258</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -4628,7 +4734,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>79</v>
@@ -4637,13 +4743,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.02531645569620253</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="E9" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.02778975672864717</v>
+        <v>-0.05594733771340148</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -4671,7 +4777,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
         <v>52</v>
@@ -4680,13 +4786,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.01923076923076923</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E10" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.03387544319408047</v>
+        <v>-0.04231540003083088</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -4714,7 +4820,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
         <v>40</v>
@@ -4723,13 +4829,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.025</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F11" s="1">
-        <v>-0.0281062124248497</v>
+        <v>-0.0192384769539078</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -4752,6 +4858,350 @@
       </c>
       <c r="L11" s="1">
         <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.07378393149936235</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.06368292139835226</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-0.0192384769539078</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-0.008127365842796705</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.00576152304609219</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.02361866590323504</v>
+      </c>
+      <c r="G17" s="1">
+        <f>1/(POWER(B17,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>G17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K17" s="1">
+        <f>I17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f>MIN(K17,1-D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.04742818971275885</v>
+      </c>
+      <c r="G18" s="1">
+        <f>1/(POWER(B18,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f>SQRT((D18-POWER(10,-4))*B18*((1-D18+POWER(10,-4))*B18))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f>G18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K18" s="1">
+        <f>I18*J18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f>MIN(K18,1-D18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.1307615230460922</v>
+      </c>
+      <c r="G19" s="1">
+        <f>1/(POWER(B19,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f>SQRT((D19-POWER(10,-4))*B19*((1-D19+POWER(10,-4))*B19))</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f>G19*H19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K19" s="1">
+        <f>I19*J19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f>MIN(K19,1-D19)</f>
         <v>0</v>
       </c>
     </row>
@@ -4763,7 +5213,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4774,7 +5224,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4797,30 +5247,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4829,13 +5279,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0267379679144385</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.02636824451041119</v>
+        <v>-0.0390245732105923</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4863,7 +5313,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -4872,13 +5322,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.02112676056338028</v>
+        <v>0.07746478873239436</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.03197945186146942</v>
+        <v>-0.04177368822151345</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4906,7 +5356,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3">
         <v>93</v>
@@ -4915,13 +5365,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.02150537634408602</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.03160083608076367</v>
+        <v>-0.05472234792164975</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4949,7 +5399,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B7" s="3">
         <v>73</v>
@@ -4958,13 +5408,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0136986301369863</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.0394075822878634</v>
+        <v>-0.07814258654294891</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4987,6 +5437,264 @@
       </c>
       <c r="L7" s="1">
         <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="3">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.06368292139835226</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="3">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.09221144992688078</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="3">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.07378393149936235</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="3">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.0604149475421431</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.0283293860448169</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.00576152304609219</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
         <v>0</v>
       </c>
     </row>
@@ -4998,7 +5706,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5009,7 +5717,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5032,30 +5740,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -5064,13 +5772,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.05315947843530592</v>
+        <v>0.119358074222668</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F4" s="1">
-        <v>5.326601045622242E-05</v>
+        <v>0.0001195972687601937</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5098,7 +5806,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -5107,13 +5815,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.05348133198789102</v>
+        <v>0.1200807265388496</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F5" s="1">
-        <v>0.000375119563041322</v>
+        <v>0.0008422495849418343</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5141,7 +5849,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B6" s="3">
         <v>539</v>
@@ -5150,13 +5858,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.04823747680890538</v>
+        <v>0.1187384044526902</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.004868735615944315</v>
+        <v>-0.000500072501217641</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5184,7 +5892,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B7" s="3">
         <v>344</v>
@@ -5193,13 +5901,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.05232558139534884</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.000780631029500857</v>
+        <v>-0.00877336067483804</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5227,7 +5935,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3">
         <v>204</v>
@@ -5236,13 +5944,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.04901960784313725</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E8" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.004086604581712443</v>
+        <v>-0.03590514362057448</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5270,7 +5978,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B9" s="3">
         <v>136</v>
@@ -5279,13 +5987,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.04411764705882353</v>
+        <v>0.08088235294117647</v>
       </c>
       <c r="E9" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.008988565366026165</v>
+        <v>-0.03835612401273134</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5313,7 +6021,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B10" s="3">
         <v>92</v>
@@ -5322,13 +6030,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.04347826086956522</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="E10" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.009627951555284481</v>
+        <v>-0.04315152043216867</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5356,7 +6064,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B11" s="3">
         <v>54</v>
@@ -5365,13 +6073,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.03703703703703703</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="E11" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F11" s="1">
-        <v>-0.01606917538781266</v>
+        <v>-0.04516440287983374</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5399,7 +6107,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B12" s="3">
         <v>35</v>
@@ -5408,13 +6116,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.02857142857142857</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="E12" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F12" s="1">
-        <v>-0.02453478385342113</v>
+        <v>-0.004952762668193528</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -5437,6 +6145,135 @@
       </c>
       <c r="L12" s="1">
         <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="3">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.0604149475421431</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-0.008127365842796705</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.1192384769539078</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.0807615230460922</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
         <v>0</v>
       </c>
     </row>
@@ -5459,7 +6296,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5482,30 +6319,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -5514,13 +6351,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.05627009646302251</v>
+        <v>0.1623794212218649</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F4" s="1">
-        <v>0.003163884038172811</v>
+        <v>0.04314094426795713</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5548,7 +6385,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -5557,13 +6394,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.05894308943089431</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F5" s="1">
-        <v>0.005836877006044613</v>
+        <v>0.06368835231438487</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5591,7 +6428,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3">
         <v>365</v>
@@ -5600,13 +6437,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.06575342465753424</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F6" s="1">
-        <v>0.01264721223268454</v>
+        <v>0.0725423449639004</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5634,7 +6471,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3">
         <v>253</v>
@@ -5643,13 +6480,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.06719367588932806</v>
+        <v>0.1857707509881423</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F7" s="1">
-        <v>0.01408746346447837</v>
+        <v>0.06653227403423449</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5677,7 +6514,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3">
         <v>167</v>
@@ -5686,13 +6523,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.0658682634730539</v>
+        <v>0.1317365269461078</v>
       </c>
       <c r="E8" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F8" s="1">
-        <v>0.0127620510482042</v>
+        <v>0.01249804999219999</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5720,7 +6557,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3">
         <v>126</v>
@@ -5729,13 +6566,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.07142857142857142</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="E9" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F9" s="1">
-        <v>0.01832235900372173</v>
+        <v>0.007745650030219167</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5763,7 +6600,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3">
         <v>85</v>
@@ -5772,13 +6609,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.08235294117647059</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="E10" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F10" s="1">
-        <v>0.02924672875162089</v>
+        <v>-0.01335612401273134</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5806,7 +6643,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3">
         <v>65</v>
@@ -5815,13 +6652,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.09230769230769231</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="E11" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F11" s="1">
-        <v>0.03920147988284262</v>
+        <v>0.01922306150763066</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5849,7 +6686,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3">
         <v>41</v>
@@ -5858,13 +6695,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.04878048780487805</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="E12" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F12" s="1">
-        <v>-0.004325724619971646</v>
+        <v>0.002712742558287309</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -5892,7 +6729,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3">
         <v>31</v>
@@ -5901,13 +6738,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.06451612903225806</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="E13" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F13" s="1">
-        <v>0.01140991660740837</v>
+        <v>0.009793781110608316</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -5935,7 +6772,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3">
         <v>23</v>
@@ -5944,13 +6781,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.08695652173913043</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="E14" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F14" s="1">
-        <v>0.03385030931428074</v>
+        <v>0.01119630565478784</v>
       </c>
       <c r="G14" s="1">
         <f>1/(POWER(B14,1.5))</f>
@@ -5984,7 +6821,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5995,7 +6832,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6018,30 +6855,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -6050,10 +6887,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -6084,7 +6921,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -6093,13 +6930,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.05417276720351391</v>
+        <v>0.109809663250366</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F5" s="1">
-        <v>0.001066554778664214</v>
+        <v>-0.009428813703541775</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6127,7 +6964,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B6" s="3">
         <v>95</v>
@@ -6136,13 +6973,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.05263157894736842</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.0004746334774812788</v>
+        <v>-0.08765952958548676</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6170,7 +7007,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B7" s="3">
         <v>52</v>
@@ -6179,13 +7016,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.03846153846153846</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.01464467396331123</v>
+        <v>-0.1000077077231386</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6208,49 +7045,6 @@
       </c>
       <c r="L7" s="1">
         <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="3">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.0531062124248497</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-0.009627951555284481</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
         <v>0</v>
       </c>
     </row>
@@ -6273,7 +7067,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6296,30 +7090,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -6328,13 +7122,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.06030150753768844</v>
+        <v>0.1281407035175879</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F4" s="1">
-        <v>0.007195295112838743</v>
+        <v>0.00890222656368013</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6362,7 +7156,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -6371,13 +7165,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.05732484076433121</v>
+        <v>0.08917197452229299</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F5" s="1">
-        <v>0.004218628339481514</v>
+        <v>-0.03006650243161482</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6405,7 +7199,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B6" s="3">
         <v>75</v>
@@ -6414,13 +7208,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.02666666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.02643954575818303</v>
+        <v>-0.03923847695390781</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6448,7 +7242,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B7" s="3">
         <v>43</v>
@@ -6457,13 +7251,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.02325581395348837</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0531062124248497</v>
+        <v>0.1192384769539078</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.02985039847136133</v>
+        <v>-0.02621522113995432</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
